--- a/Coletor Tweets/ps4.xlsx
+++ b/Coletor Tweets/ps4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbaaa22ba941cb79/Documentos/Segundo_Semestre/CienciaDados/Projetos/Projeto1/Datawitter/CDados_P1/Coletor Tweets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="863" documentId="11_62F829648EEC2C12A7C336D5E9FC1FC65BE8309F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6CF28EB9-ABFF-4149-9351-A10592EC8838}"/>
+  <xr:revisionPtr revIDLastSave="1415" documentId="11_62F829648EEC2C12A7C336D5E9FC1FC65BE8309F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E85FED7D-F50F-4220-838B-1E37D4BEEE7A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -6457,7 +6457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+    <sheetView topLeftCell="A369" workbookViewId="0">
       <selection activeCell="B375" sqref="B375"/>
     </sheetView>
   </sheetViews>
@@ -12482,10 +12482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A968"/>
+  <dimension ref="A1:B968"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12493,2554 +12493,4054 @@
     <col min="1" max="1" width="53.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" s="5" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="5" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" s="5" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="5" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" s="5" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="5" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B61" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B66" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B67" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B68" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B69" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B73" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B78" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B80" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B83" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B87" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B88" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B89" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B92" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B93" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B96" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B97" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B100" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B102" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B104" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" s="5" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" s="5" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B106" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B107" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" s="5" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" s="5" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B110" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B112" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B113" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B114" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B116" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B117" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B118" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B121" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B123" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B124" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B125" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B126" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B130" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B131" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B132" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B133" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" s="5" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B134" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" s="5" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B135" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B137" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B138" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B139" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B140" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B141" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B142" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B144" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B145" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B146" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B147" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B148" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B150" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B151" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B153" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B155" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B156" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B157" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B159" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B161" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B164" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B165" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B167" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B168" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B169" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B170" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B172" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B174" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B175" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B176" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B181" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B183" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B184" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B185" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B187" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B190" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B191" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B193" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B194" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B195" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B196" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B197" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B198" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B199" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B200" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B202" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B203" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B204" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B206" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B207" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B208" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B209" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B210" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B211" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B212" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B213" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B215" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B216" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B218" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B219" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B220" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B221" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B223" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B224" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B226" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B227" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B228" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B229" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B230" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B231" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B234" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+      <c r="B236" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" s="5" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A237" s="5" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+      <c r="B237" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="5" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+      <c r="B238" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A239" s="5" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+      <c r="B239" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A240" s="5" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="B240" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A241" s="5" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+      <c r="B241" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="5" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+      <c r="B242" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="5" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+      <c r="B243" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A244" s="5" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+      <c r="B244" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A245" s="5" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+      <c r="B245" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A246" s="5" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+      <c r="B246" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A247" s="5" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+      <c r="B247" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="5" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+      <c r="B248" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A249" s="5" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+      <c r="B249" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A250" s="5" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+      <c r="B250" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="5" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A253" s="5" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+      <c r="B253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A254" s="5" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A255" s="5" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+      <c r="B255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A256" s="5" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A257" s="5" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+      <c r="B257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="5" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+      <c r="B258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A259" s="5" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+      <c r="B259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A260" s="5" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="5" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A262" s="5" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A263" s="5" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="5" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A265" s="5" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A266" s="5" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A267" s="5" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+      <c r="B267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="5" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A269" s="5" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+      <c r="B269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="5" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A271" s="5" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+      <c r="B271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A272" s="5" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A273" s="5" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A274" s="5" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+      <c r="B274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A275" s="5" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+      <c r="B275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A276" s="5" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+      <c r="B276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A277" s="5" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="5" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="5" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A280" s="5" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A281" s="5" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A282" s="5" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="5" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A284" s="5" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A285" s="5" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A286" s="5" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A287" s="5" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+      <c r="B287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A288" s="5" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A289" s="5" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="5" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="5" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+      <c r="B291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A292" s="5" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+      <c r="B292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A293" s="5" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+      <c r="B293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A294" s="5" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+      <c r="B294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A295" s="5" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+      <c r="B295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A296" s="5" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+      <c r="B296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="5" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A298" s="5" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A299" s="5" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+      <c r="B299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A300" s="5" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+      <c r="B300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="5" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A302" s="5" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A303" s="5" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+      <c r="B303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="5" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+      <c r="B304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="5" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+      <c r="B305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="5" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A307" s="5" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+      <c r="B307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A308" s="5" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A309" s="5" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+      <c r="B309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="5" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="5" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A312" s="5" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A313" s="5" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+      <c r="B313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="5" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="5" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A316" s="5" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="5" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+      <c r="B317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="5" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+      <c r="B318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="5" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A320" s="5" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A321" s="5" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+      <c r="B321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A322" s="5" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+      <c r="B322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A323" s="5" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A324" s="5" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A325" s="5" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+      <c r="B325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="5" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A327" s="5" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A328" s="5" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+      <c r="B328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A329" s="5" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="5" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="5" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+      <c r="B331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A332" s="5" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A333" s="5" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+      <c r="B333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A334" s="5" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+      <c r="B334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A335" s="5" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A336" s="5" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A337" s="5" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A338" s="5" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="5" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A340" s="5" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="5" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A342" s="5" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="5" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A344" s="5" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A345" s="5" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
+      <c r="B345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A346" s="5" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+      <c r="B346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A347" s="5" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
+      <c r="B347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A348" s="5" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A349" s="5" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
+      <c r="B349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A350" s="5" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A351" s="5" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+      <c r="B351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A352" s="5" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A353" s="5" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
+      <c r="B353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A354" s="5" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
+      <c r="B354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A355" s="5" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
+      <c r="B355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A356" s="5" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
+      <c r="B356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A357" s="5" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A358" s="5" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
+      <c r="B358">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A359" s="5" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
+      <c r="B359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="5" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
+      <c r="B360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A361" s="5" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A362" s="5" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A363" s="5" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
+      <c r="B363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A364" s="5" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A365" s="5" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
+      <c r="B365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A366" s="5" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A367" s="5" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A368" s="5" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
+      <c r="B368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A369" s="5" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
+      <c r="B369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A370" s="5" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
+      <c r="B370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A371" s="5" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
+      <c r="B371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A372" s="5" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A373" s="5" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A374" s="5" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A375" s="5" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
+      <c r="B375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A376" s="5" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
+      <c r="B376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A377" s="5" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
+      <c r="B377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A378" s="5" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="5" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A380" s="5" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
+      <c r="B380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A381" s="5" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
+      <c r="B381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A382" s="5" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
+      <c r="B382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A383" s="5" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A384" s="5" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
+      <c r="B384">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A385" s="5" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A386" s="5" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
+      <c r="B386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="5" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
+      <c r="B388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A389" s="5" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
+      <c r="B389">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="5" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A391" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
+      <c r="B391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A392" s="5" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A393" s="5" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A394" s="5" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A395" s="5" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
+      <c r="B395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A396" s="5" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A397" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
+      <c r="B397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A398" s="5" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
+      <c r="B398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A399" s="5" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="5" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A401" s="5" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
+      <c r="B401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="5" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
+      <c r="B402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="5" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A404" s="5" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
+      <c r="B404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A405" s="5" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
+      <c r="B405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A406" s="5" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
+      <c r="B406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A407" s="5" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A408" s="5" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A409" s="5" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A410" s="5" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A411" s="5" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
+      <c r="B411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="5" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
+      <c r="B412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A413" s="5" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A414" s="5" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
+      <c r="B414">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A415" s="5" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A416" s="5" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="5" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="5" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="5" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
+      <c r="B419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A420" s="5" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
+      <c r="B420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A421" s="5" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
+      <c r="B421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="5" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A423" s="5" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
+      <c r="B423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A424" s="5" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
+      <c r="B424">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A425" s="5" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A426" s="5" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A427" s="5" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A428" s="5" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A429" t="s">
+      <c r="B428">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="5" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A430" t="s">
+      <c r="B429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A430" s="5" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A431" s="5" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A432" t="s">
+      <c r="B431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="5" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A433" t="s">
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A433" s="5" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A434" t="s">
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="5" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="5" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A436" t="s">
+      <c r="B435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="5" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A437" t="s">
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A437" s="5" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A438" t="s">
+      <c r="B437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A438" s="5" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A439" t="s">
+      <c r="B438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" s="5" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A440" s="5" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A441" s="5" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A442" s="5" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="5" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
+      <c r="B443">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A444" s="5" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
+      <c r="B444">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A445" s="5" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A446" s="5" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
+      <c r="B446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A447" s="5" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
+      <c r="B447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A448" s="5" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
+      <c r="B448">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="5" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A450" s="5" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A451" t="s">
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A451" s="5" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A452" t="s">
+      <c r="B451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A452" s="5" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A453" t="s">
+      <c r="B452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="5" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="5" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A455" t="s">
+      <c r="B454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A455" s="5" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
+      <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A456" s="5" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A457" t="s">
+      <c r="B456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="5" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
+      <c r="B457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A458" s="5" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A459" s="5" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A460" t="s">
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="5" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A461" t="s">
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A461" s="5" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
+      <c r="B461">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A462" s="5" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
+      <c r="B462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="5" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A464" t="s">
+      <c r="B463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A464" s="5" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
+      <c r="B464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="5" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A466" s="5" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
+      <c r="B466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="5" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A468" t="s">
+      <c r="B467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="5" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
+      <c r="B468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A469" s="5" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
+      <c r="B469">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A470" s="5" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A471" t="s">
+      <c r="B470">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A471" s="5" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
+      <c r="B471">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A472" s="5" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
+      <c r="B472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A473" s="5" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" s="5" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A475" t="s">
+      <c r="B474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" s="5" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
+      <c r="B475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A476" s="5" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
+      <c r="B476">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A477" s="5" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="5" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A479" s="5" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
+      <c r="B479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" s="5" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
+      <c r="B480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A481" s="5" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
+      <c r="B481">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A482" s="5" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
+      <c r="B482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A483" s="5" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
+      <c r="B483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A484" s="5" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
+      <c r="B484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A485" s="5" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A486" s="5" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
+      <c r="B486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A487" s="5" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
+      <c r="B487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A488" s="5" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
+      <c r="B488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A489" s="5" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
+      <c r="B489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A490" s="5" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" s="5" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
+      <c r="B491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A492" s="5" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
+      <c r="B492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A493" s="5" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A494" t="s">
+      <c r="B493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A494" s="5" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A495" t="s">
+      <c r="B494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A495" s="5" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A496" t="s">
+      <c r="B495">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A496" s="5" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
+      <c r="B496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A497" s="5" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
+      <c r="B497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A498" s="5" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
+      <c r="B498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A499" s="5" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
+      <c r="B499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="5" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
+      <c r="B500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A501" s="5" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A502" t="s">
+      <c r="B501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A502" s="5" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B502">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>1260</v>
       </c>

--- a/Coletor Tweets/ps4.xlsx
+++ b/Coletor Tweets/ps4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbaaa22ba941cb79/Documentos/Segundo_Semestre/CienciaDados/Projetos/Projeto1/Datawitter/CDados_P1/Coletor Tweets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1425" documentId="11_62F829648EEC2C12A7C336D5E9FC1FC65BE8309F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F7CF6C48-2DA9-4372-BC4F-5CC282B793BC}"/>
+  <xr:revisionPtr revIDLastSave="1456" documentId="11_62F829648EEC2C12A7C336D5E9FC1FC65BE8309F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69E847C8-B9BF-498E-8796-B69AEE60637E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="1259">
   <si>
     <t>Treinamento</t>
   </si>
@@ -4388,6 +4388,27 @@
   </si>
   <si>
     <t>@fnstatusbr @brasil_fortnite porque não coloca esses camp separado por plataforma ? tem q coloca pc contra ps4 qual é a lógica disso ? 60fps contra 240 140 ??? vocês não pensam não?</t>
+  </si>
+  <si>
+    <t>Relevância</t>
+  </si>
+  <si>
+    <t>Classificação das relevâncias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -&gt; muito irrelevante                1 -&gt; irrelevante                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -&gt; muito irrelevante                   1 -&gt; irrelevante                      </t>
+  </si>
+  <si>
+    <t>2 -&gt; neutro                                      3 -&gt; relevante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 -&gt; muito relevante  </t>
+  </si>
+  <si>
+    <t>2 -&gt; neutro                                    3 -&gt; relevante                               4 -&gt; muito relevante</t>
   </si>
 </sst>
 </file>
@@ -4432,7 +4453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4455,6 +4476,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4463,7 +4504,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4475,6 +4516,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -4814,47 +4857,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B752"/>
+  <dimension ref="A1:C752"/>
   <sheetViews>
-    <sheetView topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="B375" sqref="B375"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -4862,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -4870,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -4878,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -4886,7 +4946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -4894,7 +4954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -4902,7 +4962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -4910,7 +4970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -4918,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -4926,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -4934,7 +4994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -4942,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -10841,39 +10901,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B502"/>
+  <dimension ref="A1:C502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G507" sqref="G507"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>752</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>753</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>754</v>
       </c>
@@ -10881,7 +10955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>755</v>
       </c>
@@ -10889,7 +10963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>756</v>
       </c>
@@ -10897,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>757</v>
       </c>
@@ -10905,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>758</v>
       </c>
@@ -10913,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>759</v>
       </c>
@@ -10921,7 +10995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>760</v>
       </c>
@@ -10929,7 +11003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>761</v>
       </c>
@@ -10937,7 +11011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>762</v>
       </c>
@@ -10945,7 +11019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>763</v>
       </c>
@@ -10953,7 +11027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>764</v>
       </c>
@@ -10961,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>765</v>
       </c>
@@ -10969,7 +11043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>766</v>
       </c>
@@ -14860,5 +14934,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Coletor Tweets/ps4.xlsx
+++ b/Coletor Tweets/ps4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbaaa22ba941cb79/Documentos/Segundo_Semestre/CienciaDados/Projetos/Projeto1/Datawitter/CDados_P1/Coletor Tweets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1456" documentId="11_62F829648EEC2C12A7C336D5E9FC1FC65BE8309F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69E847C8-B9BF-498E-8796-B69AEE60637E}"/>
+  <xr:revisionPtr revIDLastSave="1458" documentId="11_62F829648EEC2C12A7C336D5E9FC1FC65BE8309F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F481325-CAB9-4A95-AED6-D0FED746DC24}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1253">
   <si>
     <t>Treinamento</t>
   </si>
@@ -4391,24 +4391,6 @@
   </si>
   <si>
     <t>Relevância</t>
-  </si>
-  <si>
-    <t>Classificação das relevâncias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 -&gt; muito irrelevante                1 -&gt; irrelevante                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 -&gt; muito irrelevante                   1 -&gt; irrelevante                      </t>
-  </si>
-  <si>
-    <t>2 -&gt; neutro                                      3 -&gt; relevante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 -&gt; muito relevante  </t>
-  </si>
-  <si>
-    <t>2 -&gt; neutro                                    3 -&gt; relevante                               4 -&gt; muito relevante</t>
   </si>
 </sst>
 </file>
@@ -4453,7 +4435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4487,15 +4469,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4504,7 +4477,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4517,7 +4490,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -4857,64 +4829,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C752"/>
+  <dimension ref="A1:B752"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -4922,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -4930,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -4938,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -4946,7 +4905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -4954,7 +4913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -4962,7 +4921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -4970,7 +4929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -4978,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -4986,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -4994,7 +4953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -5002,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -10901,53 +10860,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C502"/>
+  <dimension ref="A1:B502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53.21875" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>751</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>752</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>753</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>754</v>
       </c>
@@ -10955,7 +10904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>755</v>
       </c>
@@ -10963,7 +10912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>756</v>
       </c>
@@ -10971,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>757</v>
       </c>
@@ -10979,7 +10928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>758</v>
       </c>
@@ -10987,7 +10936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>759</v>
       </c>
@@ -10995,7 +10944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>760</v>
       </c>
@@ -11003,7 +10952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>761</v>
       </c>
@@ -11011,7 +10960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>762</v>
       </c>
@@ -11019,7 +10968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>763</v>
       </c>
@@ -11027,7 +10976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>764</v>
       </c>
@@ -11035,7 +10984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>765</v>
       </c>
@@ -11043,7 +10992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>766</v>
       </c>
